--- a/cta策略/result/螺纹/KDJ_60min/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/KDJ_60min/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.0551091216038806</v>
+        <v>-0.007585827341038409</v>
       </c>
       <c r="D2">
-        <v>-1.628183950995592</v>
+        <v>-0.381980330268037</v>
       </c>
       <c r="E2">
-        <v>-0.1656471743354763</v>
+        <v>-0.02028297014991008</v>
       </c>
       <c r="F2">
-        <v>0.0625</v>
+        <v>0.4375</v>
       </c>
     </row>
   </sheetData>
